--- a/FAQ.xlsx
+++ b/FAQ.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="860">
   <si>
     <t>Chatbot UAT</t>
   </si>
@@ -3136,7 +3136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3460,7 +3460,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3468,14 +3467,21 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3685,7 +3691,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4079,11 +4085,11 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4118,16 +4124,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4527,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5521,24 +5521,24 @@
         <v>854</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="160" customFormat="1" ht="28.2">
-      <c r="A66" s="158">
+    <row r="66" spans="1:8" s="26" customFormat="1" ht="28.2">
+      <c r="A66" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B66" s="139" t="s">
+      <c r="B66" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="C66" s="159" t="s">
+      <c r="C66" s="158" t="s">
         <v>634</v>
       </c>
-      <c r="D66" s="158" t="s">
+      <c r="D66" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="E66" s="139" t="s">
+      <c r="E66" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="F66" s="139"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A67" s="27">
@@ -5659,28 +5659,28 @@
         <v>854</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="146" customFormat="1" ht="27.6">
-      <c r="A72" s="143">
+    <row r="72" spans="1:8" s="50" customFormat="1" ht="27.6">
+      <c r="A72" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B72" s="144" t="s">
+      <c r="B72" s="49" t="s">
         <v>645</v>
       </c>
-      <c r="C72" s="145" t="s">
+      <c r="C72" s="51" t="s">
         <v>646</v>
       </c>
-      <c r="D72" s="143" t="s">
+      <c r="D72" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="E72" s="144" t="s">
+      <c r="E72" s="49" t="s">
         <v>635</v>
       </c>
-      <c r="F72" s="144"/>
-      <c r="G72" s="146" t="s">
+      <c r="F72" s="49"/>
+      <c r="G72" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="H72" s="146" t="s">
+      <c r="H72" s="50" t="s">
         <v>855</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
     </row>
-    <row r="81" spans="1:6" s="26" customFormat="1" ht="13.8">
+    <row r="81" spans="1:8" s="26" customFormat="1" ht="13.8">
       <c r="A81" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5848,7 +5848,7 @@
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
     </row>
-    <row r="83" spans="1:6" ht="28.8">
+    <row r="83" spans="1:8" ht="28.8">
       <c r="A83" s="57" t="s">
         <v>666</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="C83" s="57"/>
       <c r="D83" s="57"/>
     </row>
-    <row r="84" spans="1:6" s="26" customFormat="1" ht="27.6">
+    <row r="84" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A84" s="27">
         <v>1</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="1:6" s="26" customFormat="1" ht="27.6">
+    <row r="85" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A85" s="27">
         <f t="shared" ref="A85:A94" si="1">(A84+1)</f>
         <v>2</v>
@@ -5888,8 +5888,14 @@
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
-    </row>
-    <row r="86" spans="1:6" s="26" customFormat="1" ht="27.6">
+      <c r="G85" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A86" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5905,8 +5911,14 @@
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
-    </row>
-    <row r="87" spans="1:6" s="26" customFormat="1" ht="27.6">
+      <c r="G86" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A87" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5922,25 +5934,37 @@
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
-    </row>
-    <row r="88" spans="1:6" s="160" customFormat="1" ht="27.6">
-      <c r="A88" s="158">
+      <c r="G87" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="A88" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B88" s="139" t="s">
+      <c r="B88" s="29" t="s">
         <v>674</v>
       </c>
-      <c r="C88" s="161" t="s">
+      <c r="C88" s="159" t="s">
         <v>675</v>
       </c>
-      <c r="D88" s="139" t="s">
+      <c r="D88" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="E88" s="139"/>
-      <c r="F88" s="139"/>
-    </row>
-    <row r="89" spans="1:6" s="26" customFormat="1" ht="27.6">
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A89" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5956,8 +5980,14 @@
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
-    </row>
-    <row r="90" spans="1:6" s="26" customFormat="1" ht="27.6">
+      <c r="G89" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A90" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5977,8 +6007,14 @@
       <c r="F90" s="29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="26" customFormat="1" ht="28.2">
+      <c r="G90" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="26" customFormat="1" ht="28.2">
       <c r="A91" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5998,8 +6034,14 @@
       <c r="F91" s="29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="26" customFormat="1" ht="28.8">
+      <c r="G91" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="26" customFormat="1" ht="28.8">
       <c r="A92" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6019,8 +6061,14 @@
       <c r="F92" s="29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="26" customFormat="1" ht="28.8">
+      <c r="G92" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="26" customFormat="1" ht="28.8">
       <c r="A93" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6040,8 +6088,14 @@
       <c r="F93" s="29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="26" customFormat="1" ht="27.6">
+      <c r="G93" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="26" customFormat="1" ht="27.6">
       <c r="A94" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6061,8 +6115,14 @@
       <c r="F94" s="29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="28.8">
+      <c r="G94" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="28.8">
       <c r="A96" s="57" t="s">
         <v>720</v>
       </c>
@@ -6108,6 +6168,12 @@
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="49"/>
+      <c r="G98" s="50" t="s">
+        <v>854</v>
+      </c>
+      <c r="H98" s="50" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="99" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A99" s="46">
@@ -6125,6 +6191,12 @@
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="49"/>
+      <c r="G99" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H99" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="100" spans="1:8" s="50" customFormat="1" ht="27.6">
       <c r="A100" s="46">
@@ -6142,6 +6214,12 @@
       </c>
       <c r="E100" s="49"/>
       <c r="F100" s="49"/>
+      <c r="G100" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H100" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="101" spans="1:8" s="50" customFormat="1" ht="55.2">
       <c r="A101" s="46">
@@ -6176,6 +6254,12 @@
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="49"/>
+      <c r="G102" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H102" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="103" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A103" s="46">
@@ -6193,6 +6277,12 @@
       </c>
       <c r="E103" s="29"/>
       <c r="F103" s="49"/>
+      <c r="G103" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H103" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="104" spans="1:8" s="50" customFormat="1" ht="27.6">
       <c r="A104" s="46">
@@ -6210,6 +6300,12 @@
       </c>
       <c r="E104" s="29"/>
       <c r="F104" s="49"/>
+      <c r="G104" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H104" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="105" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A105" s="46">
@@ -6226,6 +6322,12 @@
         <v>618</v>
       </c>
       <c r="F105" s="49"/>
+      <c r="G105" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H105" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="106" spans="1:8" s="50" customFormat="1" ht="43.2">
       <c r="A106" s="46">
@@ -6267,6 +6369,12 @@
       </c>
       <c r="E113" s="29"/>
       <c r="F113" s="49"/>
+      <c r="G113" s="50" t="s">
+        <v>854</v>
+      </c>
+      <c r="H113" s="50" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="114" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A114" s="46">
@@ -6284,6 +6392,12 @@
       </c>
       <c r="E114" s="49"/>
       <c r="F114" s="49"/>
+      <c r="G114" s="50" t="s">
+        <v>854</v>
+      </c>
+      <c r="H114" s="50" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="115" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A115" s="46">
@@ -6301,6 +6415,12 @@
       </c>
       <c r="E115" s="49"/>
       <c r="F115" s="49"/>
+      <c r="G115" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H115" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="116" spans="1:8" s="50" customFormat="1" ht="27.6">
       <c r="A116" s="46">
@@ -6318,6 +6438,12 @@
       </c>
       <c r="E116" s="49"/>
       <c r="F116" s="49"/>
+      <c r="G116" s="50" t="s">
+        <v>854</v>
+      </c>
+      <c r="H116" s="50" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="117" spans="1:8" s="50" customFormat="1" ht="27.6">
       <c r="A117" s="46">
@@ -6330,11 +6456,17 @@
       <c r="C117" s="48" t="s">
         <v>729</v>
       </c>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49" t="s">
-        <v>730</v>
-      </c>
+      <c r="D117" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="E117" s="49"/>
       <c r="F117" s="49"/>
+      <c r="G117" s="50" t="s">
+        <v>855</v>
+      </c>
+      <c r="H117" s="50" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="118" spans="1:8" s="50" customFormat="1" ht="27.6">
       <c r="A118" s="46">
@@ -6347,28 +6479,34 @@
       <c r="C118" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49" t="s">
-        <v>730</v>
-      </c>
+      <c r="D118" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="E118" s="49"/>
       <c r="F118" s="49"/>
-    </row>
-    <row r="119" spans="1:8" s="50" customFormat="1" ht="27.6">
-      <c r="A119" s="46">
+      <c r="G118" s="50" t="s">
+        <v>854</v>
+      </c>
+      <c r="H118" s="50" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="145" customFormat="1" ht="27.6">
+      <c r="A119" s="143">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="144" t="s">
         <v>733</v>
       </c>
-      <c r="C119" s="51" t="s">
+      <c r="C119" s="146" t="s">
         <v>734</v>
       </c>
-      <c r="D119" s="49" t="s">
+      <c r="D119" s="144" t="s">
         <v>618</v>
       </c>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
+      <c r="E119" s="144"/>
+      <c r="F119" s="144"/>
     </row>
     <row r="120" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A120" s="46">
@@ -6381,10 +6519,10 @@
       <c r="C120" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49" t="s">
-        <v>730</v>
-      </c>
+      <c r="D120" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="E120" s="49"/>
       <c r="F120" s="49"/>
       <c r="G120" s="50" t="s">
         <v>854</v>

--- a/FAQ.xlsx
+++ b/FAQ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,27 +18,17 @@
     <sheet name="Issue from Watson Discovery" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="867">
   <si>
     <t>Chatbot UAT</t>
   </si>
@@ -3131,12 +3121,33 @@
   <si>
     <t>Updated Answer from Dashboard</t>
   </si>
+  <si>
+    <t xml:space="preserve"> New model with Stopword = None</t>
+  </si>
+  <si>
+    <t>Got answer in 7 list acc:0.71</t>
+  </si>
+  <si>
+    <t>After Rectification</t>
+  </si>
+  <si>
+    <t>Pass  ACC:0.999</t>
+  </si>
+  <si>
+    <t>Pass  ACC:0.955</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OLD Demo model with Stopword = ENGLISH</t>
+  </si>
+  <si>
+    <t>RATIO from old model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="53">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3458,19 +3469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3486,7 +3484,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3558,8 +3556,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3685,13 +3701,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4079,17 +4157,35 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4103,18 +4199,6 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4124,11 +4208,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4463,43 +4553,43 @@
       <c r="B1" s="122">
         <v>1</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="153" t="s">
         <v>838</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:9" ht="51" customHeight="1">
       <c r="B2" s="122">
         <v>2</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="153" t="s">
         <v>839</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:9" ht="46.5" customHeight="1">
       <c r="B3" s="122">
         <v>3</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="156" t="s">
         <v>840</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="149"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="111"/>
@@ -4525,10 +4615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4541,6 +4631,14 @@
     <col min="6" max="6" width="72.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" customWidth="1"/>
+    <col min="13" max="13" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="63" customHeight="1">
@@ -5260,7 +5358,7 @@
       </c>
       <c r="F48" s="39"/>
     </row>
-    <row r="49" spans="1:8" s="36" customFormat="1" ht="28.8">
+    <row r="49" spans="1:16" s="36" customFormat="1" ht="28.8">
       <c r="A49" s="38">
         <v>14</v>
       </c>
@@ -5278,7 +5376,7 @@
       </c>
       <c r="F49" s="39"/>
     </row>
-    <row r="50" spans="1:8" s="36" customFormat="1" ht="57.6">
+    <row r="50" spans="1:16" s="36" customFormat="1" ht="57.6">
       <c r="A50" s="38">
         <v>16</v>
       </c>
@@ -5296,7 +5394,7 @@
       </c>
       <c r="F50" s="39"/>
     </row>
-    <row r="51" spans="1:8" s="36" customFormat="1" ht="43.2">
+    <row r="51" spans="1:16" s="36" customFormat="1" ht="43.2">
       <c r="A51" s="38">
         <v>17</v>
       </c>
@@ -5314,7 +5412,7 @@
       </c>
       <c r="F51" s="39"/>
     </row>
-    <row r="52" spans="1:8" s="36" customFormat="1" ht="158.4">
+    <row r="52" spans="1:16" s="36" customFormat="1" ht="158.4">
       <c r="A52" s="18">
         <v>9</v>
       </c>
@@ -5332,7 +5430,7 @@
       </c>
       <c r="F52" s="39"/>
     </row>
-    <row r="53" spans="1:8" s="36" customFormat="1" ht="57.6">
+    <row r="53" spans="1:16" s="36" customFormat="1" ht="57.6">
       <c r="A53" s="18">
         <v>7</v>
       </c>
@@ -5350,7 +5448,7 @@
       </c>
       <c r="F53" s="39"/>
     </row>
-    <row r="56" spans="1:8" ht="46.5" customHeight="1">
+    <row r="56" spans="1:16" ht="46.5" customHeight="1">
       <c r="A56" s="21" t="s">
         <v>609</v>
       </c>
@@ -5359,10 +5457,10 @@
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:16">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="1:8" ht="28.8">
+    <row r="58" spans="1:16" ht="29.4" thickBot="1">
       <c r="A58" s="57" t="s">
         <v>610</v>
       </c>
@@ -5370,7 +5468,7 @@
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
     </row>
-    <row r="59" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1">
+    <row r="59" spans="1:16" s="26" customFormat="1" ht="22.5" customHeight="1">
       <c r="A59" s="24" t="s">
         <v>1</v>
       </c>
@@ -5395,8 +5493,30 @@
       <c r="H59" s="26" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="I59" s="152" t="s">
+        <v>866</v>
+      </c>
+      <c r="J59" s="152" t="s">
+        <v>618</v>
+      </c>
+      <c r="K59" s="145" t="s">
+        <v>865</v>
+      </c>
+      <c r="L59" s="146" t="s">
+        <v>618</v>
+      </c>
+      <c r="M59" s="151" t="s">
+        <v>860</v>
+      </c>
+      <c r="N59" s="151" t="s">
+        <v>618</v>
+      </c>
+      <c r="O59" s="151"/>
+      <c r="P59" s="151" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A60" s="27">
         <v>1</v>
       </c>
@@ -5415,8 +5535,16 @@
       <c r="F60" s="30" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="151"/>
+      <c r="N60" s="151"/>
+      <c r="O60" s="151"/>
+      <c r="P60" s="151"/>
+    </row>
+    <row r="61" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A61" s="27">
         <v>2</v>
       </c>
@@ -5429,8 +5557,16 @@
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
-    </row>
-    <row r="62" spans="1:8" s="26" customFormat="1" ht="41.4">
+      <c r="I61" s="152"/>
+      <c r="J61" s="152"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="151"/>
+      <c r="N61" s="151"/>
+      <c r="O61" s="151"/>
+      <c r="P61" s="151"/>
+    </row>
+    <row r="62" spans="1:16" s="26" customFormat="1" ht="41.4">
       <c r="A62" s="27">
         <v>3</v>
       </c>
@@ -5455,8 +5591,30 @@
       <c r="H62" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" s="26" customFormat="1" ht="41.4">
+      <c r="I62" s="152">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J62" s="152" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="147">
+        <v>0.79</v>
+      </c>
+      <c r="L62" s="148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="151">
+        <v>0.93</v>
+      </c>
+      <c r="N62" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="151"/>
+      <c r="P62" s="151" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="26" customFormat="1" ht="41.4">
       <c r="A63" s="27">
         <v>4</v>
       </c>
@@ -5475,8 +5633,16 @@
       <c r="F63" s="29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" s="26" customFormat="1" ht="41.4">
+      <c r="I63" s="152"/>
+      <c r="J63" s="152"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="151"/>
+      <c r="N63" s="151"/>
+      <c r="O63" s="151"/>
+      <c r="P63" s="151"/>
+    </row>
+    <row r="64" spans="1:16" s="26" customFormat="1" ht="41.4">
       <c r="A64" s="27">
         <v>5</v>
       </c>
@@ -5497,8 +5663,28 @@
       <c r="H64" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" s="26" customFormat="1" ht="41.4">
+      <c r="I64" s="152">
+        <v>0.65</v>
+      </c>
+      <c r="J64" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="147">
+        <v>0.67</v>
+      </c>
+      <c r="L64" s="148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="151">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="N64" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" s="151"/>
+      <c r="P64" s="151"/>
+    </row>
+    <row r="65" spans="1:16" s="26" customFormat="1" ht="41.4">
       <c r="A65" s="27">
         <f t="shared" ref="A65:A81" si="0">(A64+1)</f>
         <v>6</v>
@@ -5520,8 +5706,28 @@
       <c r="H65" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" s="26" customFormat="1" ht="28.2">
+      <c r="I65" s="152">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J65" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="147">
+        <v>0.68</v>
+      </c>
+      <c r="L65" s="148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="151">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="N65" s="151" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" s="151"/>
+      <c r="P65" s="151"/>
+    </row>
+    <row r="66" spans="1:16" s="26" customFormat="1" ht="56.4" thickBot="1">
       <c r="A66" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5529,7 +5735,7 @@
       <c r="B66" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="C66" s="158" t="s">
+      <c r="C66" s="143" t="s">
         <v>634</v>
       </c>
       <c r="D66" s="27" t="s">
@@ -5539,8 +5745,32 @@
         <v>635</v>
       </c>
       <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="I66" s="152">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J66" s="152" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="149">
+        <v>0.8</v>
+      </c>
+      <c r="L66" s="150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="151">
+        <v>0.73</v>
+      </c>
+      <c r="N66" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="151" t="s">
+        <v>861</v>
+      </c>
+      <c r="P66" s="151" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A67" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5562,8 +5792,11 @@
       <c r="H67" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="M67" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A68" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5589,8 +5822,11 @@
       <c r="H68" s="26" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="M68" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A69" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5612,8 +5848,11 @@
       <c r="H69" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="M69" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A70" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5635,8 +5874,11 @@
       <c r="H70" s="26" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="M70" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A71" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5658,8 +5900,11 @@
       <c r="H71" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" s="50" customFormat="1" ht="27.6">
+      <c r="M71" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="50" customFormat="1" ht="27.6">
       <c r="A72" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5683,8 +5928,11 @@
       <c r="H72" s="50" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" s="26" customFormat="1" ht="41.4">
+      <c r="M72" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="26" customFormat="1" ht="41.4">
       <c r="A73" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5706,8 +5954,11 @@
       <c r="H73" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" s="26" customFormat="1" ht="27.6">
+      <c r="M73" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A74" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5728,8 +5979,11 @@
       <c r="H74" s="26" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" s="26" customFormat="1">
+      <c r="M74" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="26" customFormat="1">
       <c r="A75" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5746,7 +6000,7 @@
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:8" s="26" customFormat="1" ht="27.6">
+    <row r="76" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A76" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5763,7 +6017,7 @@
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
     </row>
-    <row r="77" spans="1:8" s="26" customFormat="1" ht="27.6">
+    <row r="77" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A77" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5780,7 +6034,7 @@
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="1:8" s="26" customFormat="1">
+    <row r="78" spans="1:16" s="26" customFormat="1">
       <c r="A78" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5797,7 +6051,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="1:8" s="26" customFormat="1" ht="27.6">
+    <row r="79" spans="1:16" s="26" customFormat="1" ht="27.6">
       <c r="A79" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5814,7 +6068,7 @@
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="1:8" s="26" customFormat="1" ht="28.8">
+    <row r="80" spans="1:16" s="26" customFormat="1" ht="28.8">
       <c r="A80" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5949,7 +6203,7 @@
       <c r="B88" s="29" t="s">
         <v>674</v>
       </c>
-      <c r="C88" s="159" t="s">
+      <c r="C88" s="144" t="s">
         <v>675</v>
       </c>
       <c r="D88" s="29" t="s">
@@ -6491,22 +6745,22 @@
         <v>855</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="145" customFormat="1" ht="27.6">
-      <c r="A119" s="143">
+    <row r="119" spans="1:8" s="50" customFormat="1" ht="27.6">
+      <c r="A119" s="46">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B119" s="144" t="s">
+      <c r="B119" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C119" s="146" t="s">
+      <c r="C119" s="51" t="s">
         <v>734</v>
       </c>
-      <c r="D119" s="144" t="s">
+      <c r="D119" s="49" t="s">
         <v>618</v>
       </c>
-      <c r="E119" s="144"/>
-      <c r="F119" s="144"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
     </row>
     <row r="120" spans="1:8" s="50" customFormat="1" ht="41.4">
       <c r="A120" s="46">
@@ -6885,33 +7139,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
       <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="158"/>
+      <c r="C5" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="156"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="108"/>
       <c r="F5" s="109"/>
     </row>
@@ -7430,13 +7684,13 @@
       <c r="F33" s="73"/>
     </row>
     <row r="42" spans="1:6" ht="31.2">
-      <c r="A42" s="152" t="s">
+      <c r="A42" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
     </row>
     <row r="43" spans="1:6" ht="72.75" customHeight="1">
       <c r="A43" s="9">
@@ -8033,12 +8287,12 @@
       <c r="F75" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="31.2">
-      <c r="A79" s="152" t="s">
+      <c r="A79" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="B79" s="152"/>
-      <c r="C79" s="152"/>
-      <c r="D79" s="152"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
       <c r="E79" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="129.6">
@@ -8186,12 +8440,12 @@
       <c r="F88" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="31.2">
-      <c r="A96" s="152" t="s">
+      <c r="A96" s="160" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="152"/>
-      <c r="C96" s="152"/>
-      <c r="D96" s="152"/>
+      <c r="B96" s="160"/>
+      <c r="C96" s="160"/>
+      <c r="D96" s="160"/>
       <c r="E96" s="21"/>
     </row>
     <row r="98" spans="1:5" ht="31.2">
@@ -13054,12 +13308,12 @@
       <c r="E422" s="94"/>
     </row>
     <row r="423" spans="1:6" ht="54" customHeight="1">
-      <c r="A423" s="154" t="s">
+      <c r="A423" s="163" t="s">
         <v>586</v>
       </c>
-      <c r="B423" s="154"/>
-      <c r="C423" s="154"/>
-      <c r="D423" s="154"/>
+      <c r="B423" s="163"/>
+      <c r="C423" s="163"/>
+      <c r="D423" s="163"/>
       <c r="E423" s="95"/>
     </row>
     <row r="424" spans="1:6" ht="15.6">
@@ -13304,21 +13558,21 @@
       <c r="F437" s="3"/>
     </row>
     <row r="442" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A442" s="152" t="s">
+      <c r="A442" s="160" t="s">
         <v>609</v>
       </c>
-      <c r="B442" s="152"/>
-      <c r="C442" s="152"/>
-      <c r="D442" s="152"/>
+      <c r="B442" s="160"/>
+      <c r="C442" s="160"/>
+      <c r="D442" s="160"/>
       <c r="E442" s="21"/>
     </row>
     <row r="444" spans="1:6" ht="28.8">
-      <c r="A444" s="153" t="s">
+      <c r="A444" s="162" t="s">
         <v>610</v>
       </c>
-      <c r="B444" s="153"/>
-      <c r="C444" s="153"/>
-      <c r="D444" s="153"/>
+      <c r="B444" s="162"/>
+      <c r="C444" s="162"/>
+      <c r="D444" s="162"/>
     </row>
     <row r="445" spans="1:6" s="26" customFormat="1" ht="29.25" customHeight="1">
       <c r="A445" s="27">
@@ -13397,12 +13651,12 @@
       <c r="F448" s="103"/>
     </row>
     <row r="450" spans="1:6" ht="28.8">
-      <c r="A450" s="153" t="s">
+      <c r="A450" s="162" t="s">
         <v>720</v>
       </c>
-      <c r="B450" s="153"/>
-      <c r="C450" s="153"/>
-      <c r="D450" s="153"/>
+      <c r="B450" s="162"/>
+      <c r="C450" s="162"/>
+      <c r="D450" s="162"/>
     </row>
     <row r="451" spans="1:6" ht="28.8">
       <c r="A451" s="57"/>
@@ -13475,12 +13729,12 @@
       <c r="E455" s="119"/>
     </row>
     <row r="456" spans="1:6" s="50" customFormat="1" ht="28.8">
-      <c r="A456" s="153" t="s">
+      <c r="A456" s="162" t="s">
         <v>742</v>
       </c>
-      <c r="B456" s="153"/>
-      <c r="C456" s="153"/>
-      <c r="D456" s="153"/>
+      <c r="B456" s="162"/>
+      <c r="C456" s="162"/>
+      <c r="D456" s="162"/>
       <c r="E456" s="119"/>
     </row>
     <row r="457" spans="1:6" s="50" customFormat="1" ht="27.6">
@@ -13528,20 +13782,20 @@
       <c r="E461" s="26"/>
     </row>
     <row r="462" spans="1:6" ht="28.8">
-      <c r="A462" s="153" t="s">
+      <c r="A462" s="162" t="s">
         <v>743</v>
       </c>
-      <c r="B462" s="153"/>
-      <c r="C462" s="153"/>
-      <c r="D462" s="153"/>
+      <c r="B462" s="162"/>
+      <c r="C462" s="162"/>
+      <c r="D462" s="162"/>
     </row>
     <row r="463" spans="1:6" ht="21">
-      <c r="A463" s="151" t="s">
+      <c r="A463" s="161" t="s">
         <v>744</v>
       </c>
-      <c r="B463" s="151"/>
-      <c r="C463" s="151"/>
-      <c r="D463" s="151"/>
+      <c r="B463" s="161"/>
+      <c r="C463" s="161"/>
+      <c r="D463" s="161"/>
     </row>
     <row r="464" spans="1:6">
       <c r="B464"/>
@@ -13888,11 +14142,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A42:E42"/>
     <mergeCell ref="A463:D463"/>
     <mergeCell ref="A442:D442"/>
     <mergeCell ref="A444:D444"/>
@@ -13902,6 +14151,11 @@
     <mergeCell ref="A423:D423"/>
     <mergeCell ref="A450:D450"/>
     <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D45" r:id="rId1" display="https://www.moe.gov.ae/en/eservices/servicecard/pages/prevyearsnapo.aspx"/>
@@ -14353,21 +14607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B27936ED8121144A2DB8DE34345EEFB" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72d9a10c227a3930df6d3529bc9be100">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ff03dde4259c08ff71d8d05c94e2e99">
     <xsd:element name="properties">
@@ -14481,10 +14720,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2891E3DB-2530-410D-8889-62C7A5B2519B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449E6582-9641-4B22-9460-5256DF19B5E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14505,17 +14767,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449E6582-9641-4B22-9460-5256DF19B5E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2891E3DB-2530-410D-8889-62C7A5B2519B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>